--- a/medicine/Mort/Cimetière_protestant_de_Montpellier/Cimetière_protestant_de_Montpellier.xlsx
+++ b/medicine/Mort/Cimetière_protestant_de_Montpellier/Cimetière_protestant_de_Montpellier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_protestant_de_Montpellier</t>
+          <t>Cimetière_protestant_de_Montpellier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière protestant de Montpellier, est un cimetière urbain privé, se situant dans la ville de Montpellier, dont l'entrée se trouve au 3, avenue de Palavas.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_protestant_de_Montpellier</t>
+          <t>Cimetière_protestant_de_Montpellier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière actuel créé en 1809 est le quatrième cimetière protestant de Montpellier[Note 2],[1] du cimetière protestant de Montpellier[2]. D'une superficie de 3 500 m2 à sa création, il est agrandi une première fois en 1824 puis en 1856 et de nouveau en 1880.
-Cette même année une chapelle[3] est édifiée à l'entrée. Enfin une dernière parcelle ajoutée en 1923 fixe sa forme définitive.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière actuel créé en 1809 est le quatrième cimetière protestant de Montpellier[Note 2], du cimetière protestant de Montpellier. D'une superficie de 3 500 m2 à sa création, il est agrandi une première fois en 1824 puis en 1856 et de nouveau en 1880.
+Cette même année une chapelle est édifiée à l'entrée. Enfin une dernière parcelle ajoutée en 1923 fixe sa forme définitive.
 La première inhumation a lieu le 20 novembre 1809[Note 3], le jour même du décret signé par l’empereur Napoléon Ier au palais des Tuileries, autorisant le maire de Montpellier à acquérir le terrain pour l’établissement du cimetière. Ce décret régularise l’acte de vente passé le 16 septembre 1809. 
 Le cimetière de forme triangulaire, d'une superficie d'un hectare et demi compte 1 472 concessions, très représentatives de l'importante contribution des protestants dans le développement de Montpellier.
-Le cimetière protestant est le plus ancien cimetière en activité de la ville[5].
+Le cimetière protestant est le plus ancien cimetière en activité de la ville.
 			Schéma de l'historique.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_protestant_de_Montpellier</t>
+          <t>Cimetière_protestant_de_Montpellier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,38 +561,40 @@
           <t>Personnalités inhumés au cimetière protestant de Montpellier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Berthe Baraduc (1883-1961), écrivaine de livre de jeunesse;
 Frédéric Bazille (1841-1870), artiste peintre ;
 Gaston Bazille (1818-1894), sénateur, père de Frédéric ;
-Jean-Baptiste Bénézech (1852-1909), ouvrier typographe et député[2] ;
+Jean-Baptiste Bénézech (1852-1909), ouvrier typographe et député ;
 Auguste Théodore Boehm (1798-1870), imprimeur lithographe[Note 4] ;
 Pierre de Cabrol de Mouté (1769-1819), colonel, baron d'Empire ;
-Jean Cadier (1898-1981), pasteur, théologien et résistant[2] ;
-Albert Castelnau (1823-1877), écrivain et député[7] ;
-Eugène Castelnau (1827-1894), artiste peintre[7] ;
-Paul Cazalis de Fondouce (1835-1931), géologue[2] ;
-Gustave Chancel (1822-1890), chimiste[2] ;
+Jean Cadier (1898-1981), pasteur, théologien et résistant ;
+Albert Castelnau (1823-1877), écrivain et député ;
+Eugène Castelnau (1827-1894), artiste peintre ;
+Paul Cazalis de Fondouce (1835-1931), géologue ;
+Gustave Chancel (1822-1890), chimiste ;
 Jacques David Martin de Campredon (1761-1837) général, baron d'Empire ;
 Georges Flandre (1899-1944), officier de l'Armée du salut et résistant (Montcalm) ;
-Jeanne Galzy (1883-1977), écrivain[7] ;
-Paul Gervais de Rouville (1823-1907), géologue[8] ;
-Jacques-Louis Hénon (1802-1872), médecin et maire de Lyon[7] ;
+Jeanne Galzy (1883-1977), écrivain ;
+Paul Gervais de Rouville (1823-1907), géologue ;
+Jacques-Louis Hénon (1802-1872), médecin et maire de Lyon ;
 Paul Jaulmes (1904-1993), professeur de pharmacie, créateur de l'enseignement universitaire de l’œnologie ;
 Philippe Jaulmes (1927-2017), architecte et urbaniste, inventeur du Panrama ;
 René Pomier Layrargues (1916-1940), pilote de chasse ;
-Edmond Leenhardt (1870-1950), architecte[9],[10] ;
+Edmond Leenhardt (1870-1950), architecte, ;
 Franz Leenhardt (1846-1922), théologien et universitaire ;
-Max Leenhardt (1853-1941), artiste peintre[11] ;
+Max Leenhardt (1853-1941), artiste peintre ;
 Louis Médard (1768-1841), négociant d'indienne et bibliophile ;
-Eugène Pagézy (1876-1939), général[12] ;
-Jules Pagézy (1802-1882), député, sénateur et maire de Montpellier[2] ;
-François Perrier (1833-1888), général et géographe[2] ;
+Eugène Pagézy (1876-1939), général ;
+Jules Pagézy (1802-1882), député, sénateur et maire de Montpellier ;
+François Perrier (1833-1888), général et géographe ;
 Jules Planchon (1823-1888), biologiste ;
-Armand Sabatier (1834-1910), professeur d'anatomie[13] ;
-Henri Victor Vallois (1889-1981), anthropologue et paléontologue[2].
+Armand Sabatier (1834-1910), professeur d'anatomie ;
+Henri Victor Vallois (1889-1981), anthropologue et paléontologue.
 	Vues du cimetière
 			Vue générale.
 			Chapelle du cimetière (1880).
